--- a/工资发放表/南山镇芒海小学2023年春季.xlsx
+++ b/工资发放表/南山镇芒海小学2023年春季.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{068648E9-8077-413B-A840-8EA47B60CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901C09E4-D23D-4055-88C3-AB212F9BDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="下埚" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>序号</t>
   </si>
@@ -259,6 +259,22 @@
   <si>
     <t>中心小学</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>芒海小学</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>6217281092901704586</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>6217281092901062910</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -477,6 +493,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -507,7 +532,36 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -574,14 +628,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{567070A7-9505-46DB-A2D1-0DB373BD4A3F}" name="表1" displayName="表1" ref="A1:D3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D3" xr:uid="{567070A7-9505-46DB-A2D1-0DB373BD4A3F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{567070A7-9505-46DB-A2D1-0DB373BD4A3F}" name="表1" displayName="表1" ref="A1:D5" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:D4" xr:uid="{567070A7-9505-46DB-A2D1-0DB373BD4A3F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1866EEEE-34B7-4D61-B964-6E5CC152A912}" name="学校" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EE2A5B29-3566-4F42-8CA6-BDD98461D0D3}" name="金额" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{33082F42-D622-449D-A1CE-0340A98DAF0A}" name="使用金额" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6DF758D7-E761-4387-B2B0-38A833454BD8}" name="剩余金额" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{1866EEEE-34B7-4D61-B964-6E5CC152A912}" name="学校" totalsRowLabel="合计" dataDxfId="7" totalsRowDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{EE2A5B29-3566-4F42-8CA6-BDD98461D0D3}" name="金额" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
+      <totalsRowFormula>SUM(表1[金额])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{33082F42-D622-449D-A1CE-0340A98DAF0A}" name="使用金额" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+      <totalsRowFormula>SUM(表1[使用金额])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{6DF758D7-E761-4387-B2B0-38A833454BD8}" name="剩余金额" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
       <calculatedColumnFormula>B2-C2</calculatedColumnFormula>
+      <totalsRowFormula>SUM(表1[剩余金额])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -877,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -891,19 +950,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="18"/>
       <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
@@ -1064,11 +1123,11 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="4">
         <f>SUM(D4:D11)</f>
         <v>20000</v>
@@ -1092,7 +1151,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1105,20 +1164,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="2"/>
@@ -1131,7 +1190,7 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1148,7 +1207,7 @@
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="4">
@@ -1165,7 +1224,9 @@
       <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="D5" s="4">
         <v>6600</v>
       </c>
@@ -1180,7 +1241,9 @@
       <c r="B6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="D6" s="4">
         <v>6600</v>
       </c>
@@ -1195,7 +1258,7 @@
       <c r="B7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="4">
@@ -1206,11 +1269,11 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="4">
         <f>SUM(D4:D7)</f>
         <v>26400</v>
@@ -1234,7 +1297,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1245,23 +1308,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="19"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1311,10 +1374,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3519D3FC-633E-468E-AD44-69E9ECBCF482}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1347,11 +1410,12 @@
         <v>49400</v>
       </c>
       <c r="C2" s="11">
-        <v>20000</v>
+        <f>20000+20000</f>
+        <v>40000</v>
       </c>
       <c r="D2" s="11">
         <f>B2-C2</f>
-        <v>29400</v>
+        <v>9400</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1367,6 +1431,38 @@
       <c r="D3" s="11">
         <f>B3-C3</f>
         <v>20300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="11">
+        <v>30300</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="11">
+        <f>B4-C4</f>
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="11">
+        <f>SUM(表1[金额])</f>
+        <v>126400</v>
+      </c>
+      <c r="C5" s="11">
+        <f>SUM(表1[使用金额])</f>
+        <v>86400</v>
+      </c>
+      <c r="D5" s="11">
+        <f>SUM(表1[剩余金额])</f>
+        <v>40000</v>
       </c>
     </row>
   </sheetData>

--- a/工资发放表/南山镇芒海小学2023年春季.xlsx
+++ b/工资发放表/南山镇芒海小学2023年春季.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\工资发放表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\芒海小学\记帐\工资发放表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{901C09E4-D23D-4055-88C3-AB212F9BDF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618F656D-5174-4A9A-8043-D1FF4257BBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
     <sheet name="芒海" sheetId="3" r:id="rId3"/>
     <sheet name="工资安排发放表" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -107,6 +118,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -130,6 +142,7 @@
         <sz val="16"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,6 +184,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,6 +307,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -301,6 +316,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -308,6 +324,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -316,12 +333,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -543,6 +562,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -560,15 +588,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -631,14 +650,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{567070A7-9505-46DB-A2D1-0DB373BD4A3F}" name="表1" displayName="表1" ref="A1:D5" totalsRowCount="1" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:D4" xr:uid="{567070A7-9505-46DB-A2D1-0DB373BD4A3F}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1866EEEE-34B7-4D61-B964-6E5CC152A912}" name="学校" totalsRowLabel="合计" dataDxfId="7" totalsRowDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{EE2A5B29-3566-4F42-8CA6-BDD98461D0D3}" name="金额" totalsRowFunction="custom" dataDxfId="6" totalsRowDxfId="2">
+    <tableColumn id="1" xr3:uid="{1866EEEE-34B7-4D61-B964-6E5CC152A912}" name="学校" totalsRowLabel="合计" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{EE2A5B29-3566-4F42-8CA6-BDD98461D0D3}" name="金额" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(表1[金额])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{33082F42-D622-449D-A1CE-0340A98DAF0A}" name="使用金额" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{33082F42-D622-449D-A1CE-0340A98DAF0A}" name="使用金额" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(表1[使用金额])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{6DF758D7-E761-4387-B2B0-38A833454BD8}" name="剩余金额" totalsRowFunction="custom" dataDxfId="4" totalsRowDxfId="0">
+    <tableColumn id="4" xr3:uid="{6DF758D7-E761-4387-B2B0-38A833454BD8}" name="剩余金额" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>B2-C2</calculatedColumnFormula>
       <totalsRowFormula>SUM(表1[剩余金额])</totalsRowFormula>
     </tableColumn>
@@ -936,8 +955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1377,7 +1396,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
